--- a/premise/data/additional_inventories/lci-hydrogen-turbine.xlsx
+++ b/premise/data/additional_inventories/lci-hydrogen-turbine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2B34BB-A47D-894B-96F4-AAC9A8BBFFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933AB756-7003-E747-A394-6D57AA9E10C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35060" yWindow="-240" windowWidth="30240" windowHeight="18880" xr2:uid="{26241F67-8618-094B-AD38-E491C9570B84}"/>
+    <workbookView xWindow="800" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{26241F67-8618-094B-AD38-E491C9570B84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$13</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="0.01" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="54">
   <si>
     <t>database</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t>Based on LCA of Power-to-X processes and applications in the residential sector, Sacchi and Bauer, 2023 (not yet published). Geological storage dataset from Cristina Wulff et al., 2018.</t>
+  </si>
+  <si>
+    <t>heat production, from hydrogen-fired one gigawatt gas turbine</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Assumes 95% LHV efficiency + 0.5% H2 loss</t>
   </si>
 </sst>
 </file>
@@ -562,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1C5B3A-29A3-3D4D-87B5-E2283E6AD55F}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
         <v>2</v>
@@ -870,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -878,7 +890,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -886,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
         <v>2</v>
@@ -908,7 +920,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M27" t="s">
         <v>2</v>
@@ -951,7 +963,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>B20</f>
-        <v>hydrogen storage, for grid-balancing</v>
+        <v>heat production, from hydrogen-fired one gigawatt gas turbine</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -962,102 +974,350 @@
       </c>
       <c r="D30" s="2" t="str">
         <f>B27</f>
-        <v>kilogram</v>
+        <v>megajoule</v>
       </c>
       <c r="F30" t="s">
         <v>18</v>
       </c>
       <c r="G30" t="str">
         <f>B25</f>
-        <v>hydrogen, gaseous, 80 bar</v>
+        <v>heat</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3">
+        <f>0.000000000013889/3.6</f>
+        <v>3.8580555555555555E-12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <f>1/120/0.95</f>
+        <v>8.771929824561403E-3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3">
+        <f>0.4448/1000/3.6</f>
+        <v>1.2355555555555554E-4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <f>0.000154285714285714/3.6</f>
+        <v>4.2857142857142782E-5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="4">
+        <f>((1/0.513)/141.8)*0.005</f>
+        <v>6.8734758067398537E-5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>B37</f>
+        <v>hydrogen storage, for grid-balancing</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
+        <f>B38</f>
+        <v>RER</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>B44</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="str">
+        <f>B42</f>
+        <v>hydrogen, gaseous, 80 bar</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B48" s="4">
         <f>1+0.0025+(0.023*0.3)</f>
         <v>1.0093999999999999</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F48" t="s">
         <v>16</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G48" t="s">
         <v>33</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4">
-        <f>B31</f>
+      <c r="B49" s="4">
+        <f>B48</f>
         <v>1.0093999999999999</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F49" t="s">
         <v>16</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>26</v>
       </c>
-      <c r="B33">
+      <c r="B50">
         <v>0.88</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D50" t="s">
         <v>22</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G50" t="s">
         <v>24</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="4">
-        <f>B32-1</f>
+      <c r="B51" s="4">
+        <f>B49-1</f>
         <v>9.3999999999998529E-3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E51" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F51" t="s">
         <v>20</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H51" t="s">
         <v>45</v>
       </c>
     </row>
